--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H2">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I2">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J2">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.19923924153044</v>
+        <v>4.976167666666666</v>
       </c>
       <c r="N2">
-        <v>4.19923924153044</v>
+        <v>14.928503</v>
       </c>
       <c r="O2">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="P2">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="Q2">
-        <v>2.794779200560329</v>
+        <v>4.386994391100999</v>
       </c>
       <c r="R2">
-        <v>2.794779200560329</v>
+        <v>39.482949519909</v>
       </c>
       <c r="S2">
-        <v>0.003068890858593086</v>
+        <v>0.004055419811023073</v>
       </c>
       <c r="T2">
-        <v>0.003068890858593086</v>
+        <v>0.004055419811023074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H3">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I3">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J3">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.14932277780484</v>
+        <v>7.170105</v>
       </c>
       <c r="N3">
-        <v>7.14932277780484</v>
+        <v>21.510315</v>
       </c>
       <c r="O3">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="P3">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="Q3">
-        <v>4.758190102600357</v>
+        <v>6.321171738104999</v>
       </c>
       <c r="R3">
-        <v>4.758190102600357</v>
+        <v>56.890545642945</v>
       </c>
       <c r="S3">
-        <v>0.005224872901011529</v>
+        <v>0.005843409589852832</v>
       </c>
       <c r="T3">
-        <v>0.005224872901011529</v>
+        <v>0.005843409589852833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H4">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I4">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J4">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.54877535797042</v>
+        <v>1.59057</v>
       </c>
       <c r="N4">
-        <v>1.54877535797042</v>
+        <v>4.77171</v>
       </c>
       <c r="O4">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164893</v>
       </c>
       <c r="P4">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164894</v>
       </c>
       <c r="Q4">
-        <v>1.030778411953153</v>
+        <v>1.40224810257</v>
       </c>
       <c r="R4">
-        <v>1.030778411953153</v>
+        <v>12.62023292313</v>
       </c>
       <c r="S4">
-        <v>0.001131877053129601</v>
+        <v>0.001296264418907703</v>
       </c>
       <c r="T4">
-        <v>0.001131877053129601</v>
+        <v>0.001296264418907704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H5">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I5">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J5">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.70095507672414</v>
+        <v>2.818291</v>
       </c>
       <c r="N5">
-        <v>1.70095507672414</v>
+        <v>8.454872999999999</v>
       </c>
       <c r="O5">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="P5">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="Q5">
-        <v>1.132060736740395</v>
+        <v>2.484608163891</v>
       </c>
       <c r="R5">
-        <v>1.132060736740395</v>
+        <v>22.361473475019</v>
       </c>
       <c r="S5">
-        <v>0.001243093137968899</v>
+        <v>0.002296818338977732</v>
       </c>
       <c r="T5">
-        <v>0.001243093137968899</v>
+        <v>0.002296818338977732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H6">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I6">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J6">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.36075827357233</v>
+        <v>8.871526000000001</v>
       </c>
       <c r="N6">
-        <v>7.36075827357233</v>
+        <v>26.614578</v>
       </c>
       <c r="O6">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="P6">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="Q6">
-        <v>4.898909764387423</v>
+        <v>7.821146193126001</v>
       </c>
       <c r="R6">
-        <v>4.898909764387423</v>
+        <v>70.39031573813401</v>
       </c>
       <c r="S6">
-        <v>0.005379394332828418</v>
+        <v>0.007230014079993075</v>
       </c>
       <c r="T6">
-        <v>0.005379394332828418</v>
+        <v>0.007230014079993075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H7">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I7">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J7">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.19923924153044</v>
+        <v>4.976167666666666</v>
       </c>
       <c r="N7">
-        <v>4.19923924153044</v>
+        <v>14.928503</v>
       </c>
       <c r="O7">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="P7">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="Q7">
-        <v>155.7419724157088</v>
+        <v>185.4868537978743</v>
       </c>
       <c r="R7">
-        <v>155.7419724157088</v>
+        <v>1669.381684180869</v>
       </c>
       <c r="S7">
-        <v>0.1710171291349239</v>
+        <v>0.1714675229815952</v>
       </c>
       <c r="T7">
-        <v>0.1710171291349239</v>
+        <v>0.1714675229815952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H8">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I8">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J8">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.14932277780484</v>
+        <v>7.170105</v>
       </c>
       <c r="N8">
-        <v>7.14932277780484</v>
+        <v>21.510315</v>
       </c>
       <c r="O8">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="P8">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="Q8">
-        <v>265.1550832922004</v>
+        <v>267.2659578493049</v>
       </c>
       <c r="R8">
-        <v>265.1550832922004</v>
+        <v>2405.393620643745</v>
       </c>
       <c r="S8">
-        <v>0.2911614667311735</v>
+        <v>0.2470656590016997</v>
       </c>
       <c r="T8">
-        <v>0.2911614667311735</v>
+        <v>0.2470656590016998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H9">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I9">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J9">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.54877535797042</v>
+        <v>1.59057</v>
       </c>
       <c r="N9">
-        <v>1.54877535797042</v>
+        <v>4.77171</v>
       </c>
       <c r="O9">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164893</v>
       </c>
       <c r="P9">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164894</v>
       </c>
       <c r="Q9">
-        <v>57.44119713247118</v>
+        <v>59.28856196336999</v>
       </c>
       <c r="R9">
-        <v>57.44119713247118</v>
+        <v>533.5970576703299</v>
       </c>
       <c r="S9">
-        <v>0.06307502386991479</v>
+        <v>0.05480745752514551</v>
       </c>
       <c r="T9">
-        <v>0.06307502386991479</v>
+        <v>0.05480745752514554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H10">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I10">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J10">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70095507672414</v>
+        <v>2.818291</v>
       </c>
       <c r="N10">
-        <v>1.70095507672414</v>
+        <v>8.454872999999999</v>
       </c>
       <c r="O10">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="P10">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="Q10">
-        <v>63.08525982982164</v>
+        <v>105.051912574931</v>
       </c>
       <c r="R10">
-        <v>63.08525982982164</v>
+        <v>945.4672131743788</v>
       </c>
       <c r="S10">
-        <v>0.06927265565912817</v>
+        <v>0.09711195626473522</v>
       </c>
       <c r="T10">
-        <v>0.06927265565912817</v>
+        <v>0.09711195626473523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H11">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I11">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J11">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.36075827357233</v>
+        <v>8.871526000000001</v>
       </c>
       <c r="N11">
-        <v>7.36075827357233</v>
+        <v>26.614578</v>
       </c>
       <c r="O11">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="P11">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="Q11">
-        <v>272.9968325366471</v>
+        <v>330.686495382566</v>
       </c>
       <c r="R11">
-        <v>272.9968325366471</v>
+        <v>2976.178458443094</v>
       </c>
       <c r="S11">
-        <v>0.2997723339391579</v>
+        <v>0.3056927921614416</v>
       </c>
       <c r="T11">
-        <v>0.2997723339391579</v>
+        <v>0.3056927921614417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H12">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I12">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J12">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.19923924153044</v>
+        <v>4.976167666666666</v>
       </c>
       <c r="N12">
-        <v>4.19923924153044</v>
+        <v>14.928503</v>
       </c>
       <c r="O12">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="P12">
-        <v>0.1912304540674914</v>
+        <v>0.195706700443638</v>
       </c>
       <c r="Q12">
-        <v>15.61310257129428</v>
+        <v>21.83399887865811</v>
       </c>
       <c r="R12">
-        <v>15.61310257129428</v>
+        <v>196.505989907923</v>
       </c>
       <c r="S12">
-        <v>0.01714443407397432</v>
+        <v>0.02018375765101978</v>
       </c>
       <c r="T12">
-        <v>0.01714443407397432</v>
+        <v>0.02018375765101978</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H13">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I13">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J13">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.14932277780484</v>
+        <v>7.170105</v>
       </c>
       <c r="N13">
-        <v>7.14932277780484</v>
+        <v>21.510315</v>
       </c>
       <c r="O13">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="P13">
-        <v>0.3255752202811872</v>
+        <v>0.2819916219431576</v>
       </c>
       <c r="Q13">
-        <v>26.58174574604036</v>
+        <v>31.460367699935</v>
       </c>
       <c r="R13">
-        <v>26.58174574604036</v>
+        <v>283.143309299415</v>
       </c>
       <c r="S13">
-        <v>0.02918888064900209</v>
+        <v>0.02908255335160502</v>
       </c>
       <c r="T13">
-        <v>0.02918888064900209</v>
+        <v>0.02908255335160502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H14">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I14">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J14">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.54877535797042</v>
+        <v>1.59057</v>
       </c>
       <c r="N14">
-        <v>1.54877535797042</v>
+        <v>4.77171</v>
       </c>
       <c r="O14">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164893</v>
       </c>
       <c r="P14">
-        <v>0.07053015984992624</v>
+        <v>0.06255520862164894</v>
       </c>
       <c r="Q14">
-        <v>5.758468887586456</v>
+        <v>6.978965726789999</v>
       </c>
       <c r="R14">
-        <v>5.758468887586456</v>
+        <v>62.81069154111</v>
       </c>
       <c r="S14">
-        <v>0.006323258926881832</v>
+        <v>0.00645148667759571</v>
       </c>
       <c r="T14">
-        <v>0.006323258926881832</v>
+        <v>0.006451486677595711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H15">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I15">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J15">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.70095507672414</v>
+        <v>2.818291</v>
       </c>
       <c r="N15">
-        <v>1.70095507672414</v>
+        <v>8.454872999999999</v>
       </c>
       <c r="O15">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="P15">
-        <v>0.07746031911051907</v>
+        <v>0.1108400016733093</v>
       </c>
       <c r="Q15">
-        <v>6.324285079880039</v>
+        <v>12.36585393734367</v>
       </c>
       <c r="R15">
-        <v>6.324285079880039</v>
+        <v>111.292685436093</v>
       </c>
       <c r="S15">
-        <v>0.006944570313421986</v>
+        <v>0.01143122706959637</v>
       </c>
       <c r="T15">
-        <v>0.006944570313421986</v>
+        <v>0.01143122706959637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H16">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I16">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J16">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.36075827357233</v>
+        <v>8.871526000000001</v>
       </c>
       <c r="N16">
-        <v>7.36075827357233</v>
+        <v>26.614578</v>
       </c>
       <c r="O16">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="P16">
-        <v>0.3352038466908762</v>
+        <v>0.3489064673182461</v>
       </c>
       <c r="Q16">
-        <v>27.36787958904264</v>
+        <v>38.92571587438867</v>
       </c>
       <c r="R16">
-        <v>27.36787958904264</v>
+        <v>350.331442869498</v>
       </c>
       <c r="S16">
-        <v>0.03005211841888982</v>
+        <v>0.03598366107681144</v>
       </c>
       <c r="T16">
-        <v>0.03005211841888982</v>
+        <v>0.03598366107681144</v>
       </c>
     </row>
   </sheetData>
